--- a/files/Grupo tarefas.xlsx
+++ b/files/Grupo tarefas.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bookercontabilidadeinteliga.sharepoint.com/sites/BOOKERTECNOLOGIA/Documentos Compartilhados/Tecnologia da Informação/BANCO DE DADOS - POSTGRES/BOOKER_DW/APONTAMENTO_HORAS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\jvfalves\documentos\projetos\chatbot_apontamento_horas\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{73CF40D1-F850-4C7F-AE5E-2AE9066FFE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86304DEB-037A-4E8C-B60E-ACDA5DE7F0D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212963C0-414F-4E46-9B52-137D11545686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{2442AA7B-66B4-4DED-ABFD-5D3C34F1A8B0}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2442AA7B-66B4-4DED-ABFD-5D3C34F1A8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="grupo_tarefas" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">grupo_tarefas!$A$1:$C$137</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="277">
   <si>
     <t>1.01</t>
   </si>
@@ -135,6 +138,738 @@
   </si>
   <si>
     <t>cod_grupo_tarefa</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.51</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>CAPTURADOR DE NOTAS - GERAÇÃO RELATÓRIO  E BAIXA DE XML ENTRADAS</t>
+  </si>
+  <si>
+    <t>XML ENTRADAS - A10 - CLASSIFICAÇÃO TRIBUTAÇÃO E ENVIO GUIAS (ST, DIFAL, ATECIPAÇÃO)</t>
+  </si>
+  <si>
+    <t>RECEPÇÃO DE ARQUIVOS/DATA DE CORTE/SOLICITAÇÃO RELATORIO DENEGADAS/INUTILIZADAS</t>
+  </si>
+  <si>
+    <t>IMPORTAR NOTAS DE SERVIÇOS PRESTADOS</t>
+  </si>
+  <si>
+    <t>IMPORTAR NOTAS DE SERVIÇOS TOMADOS</t>
+  </si>
+  <si>
+    <t>APURAR ISS PRESTADO E VERIFICAR SE BATE COM A GUIA DA PREFEITURA</t>
+  </si>
+  <si>
+    <t>APURAR ISS TOMADO E VERIFICAR SE BATE COM A GUIA DA PREFEITURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERAÇÃO GUIA ISS PRESTADO </t>
+  </si>
+  <si>
+    <t>GERAÇÃO GUIA ISS TOMADO</t>
+  </si>
+  <si>
+    <t>IMPORTAÇÃO DE ARQUIVOS ENTRADA;  *LEMBRAR DAS DEVOLUÇÕES DE EMISSÃO PRÓPRIA</t>
+  </si>
+  <si>
+    <t>IMPORTAÇÃO DE ARQUIVOS SAÍDA</t>
+  </si>
+  <si>
+    <t>ATUALIZAR BASE DE DADOS PRODUTO SPED/SINTEGRA/XML</t>
+  </si>
+  <si>
+    <t>RODAR APURAÇÃO ICMS/RELATÓRIOS - 1º ETAPA</t>
+  </si>
+  <si>
+    <t>GERAÇÃO E CONVERSÃO SPED FISCAL COM C170</t>
+  </si>
+  <si>
+    <t>IMPUTAR INFORMAÇÕES QUE ALIMENTAM ANÁLISE</t>
+  </si>
+  <si>
+    <t>VALIDAÇÕES</t>
+  </si>
+  <si>
+    <t>MONTAR PLANILHA DE OCORRÊNCIAS</t>
+  </si>
+  <si>
+    <t>TRATATIVA PLANILHA OCORRÊNCIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVIO PLANILHA OCORRÊNCIAS </t>
+  </si>
+  <si>
+    <t>OTIMIZAÇÃO (EMSYS) E CLASS PERFIL PIS E COFINS - SOMENTE EMPRESAS QUE NÃO SÃO ALIQ BÁSICA (MM)</t>
+  </si>
+  <si>
+    <t>VERIFICAR RELAÇÃO E ALTERAR STATUS DE NOTAS CANCELADAS, DENEGADAS, E INUTILIZADAS</t>
+  </si>
+  <si>
+    <t>CONFERIR SEQUÊNCIA DAS NOTAS FISCAIS</t>
+  </si>
+  <si>
+    <t>INCLUIR COD AJUSTE DIFAL NO DOCUMENTO</t>
+  </si>
+  <si>
+    <t>ICMS - ANÁLISE APURAÇÃO</t>
+  </si>
+  <si>
+    <t>TRATATIVA PARTICULARIDADES</t>
+  </si>
+  <si>
+    <t>RODAR SPED E OLHAR ERROS E ADVERTÊNCIAS APONTADOS NO MÁRIO (ANTES DO VALIDADOR)</t>
+  </si>
+  <si>
+    <t>ICMS - APURAÇÃO E GERAÇÃO GUIA</t>
+  </si>
+  <si>
+    <t>SUBVENÇÃO</t>
+  </si>
+  <si>
+    <t>PIS E COFINS - RODAR APURAÇÃO E ANALISAR BASE DE CRÉDITO E DÉBITO DE ACORDO COM CFOP</t>
+  </si>
+  <si>
+    <t>PIS E COFINS - CONFIRMAR SE AS RETENÇÕES FORAM PUXADAS CORRETAMENTE</t>
+  </si>
+  <si>
+    <t>PIS E COFINS - IMPUT OUTROS CRÉDITOS (NÃO CUMULATIVO)/OUTROS DÉBITOS (CUMULATIVO E NÃO CUMULATIVO)</t>
+  </si>
+  <si>
+    <t>PIS E COFINS - APURAÇÃO E GERAÇÃO GUIA</t>
+  </si>
+  <si>
+    <t>IRPJ/CSLL - CONFIRMAR A BASE DE CÁLCULO, SE PUXOU CORRETAMENTE O FATURAMENTO DOS 3 PERÍODOS</t>
+  </si>
+  <si>
+    <t>SOMAR OS OUTROS DÉBITOS DOS 3 MESES E INCLUIR MANUAL NA APURAÇÃO - IRPJ/CSLL</t>
+  </si>
+  <si>
+    <t>CONFIRMAR SE AS RETENÇÕES FORAM PUXADAS CORRETAMENTE</t>
+  </si>
+  <si>
+    <t>APURAÇÃO E GERAÇÃO GUIA - IRPJ E CSLL</t>
+  </si>
+  <si>
+    <t>APURAÇÃO SIMPLES NACIONAL - DAS</t>
+  </si>
+  <si>
+    <t>SIMPLES NACIONAL</t>
+  </si>
+  <si>
+    <t>EFD ICMS</t>
+  </si>
+  <si>
+    <t>EFD PIS/COFINS</t>
+  </si>
+  <si>
+    <t>EFD REINF</t>
+  </si>
+  <si>
+    <t>SCANC</t>
+  </si>
+  <si>
+    <t>SIMP</t>
+  </si>
+  <si>
+    <t>DAPI</t>
+  </si>
+  <si>
+    <t>DCTF Web - MIT</t>
+  </si>
+  <si>
+    <t>PERDCOMP</t>
+  </si>
+  <si>
+    <t>GIAM</t>
+  </si>
+  <si>
+    <t>DIF</t>
+  </si>
+  <si>
+    <t>DIME</t>
+  </si>
+  <si>
+    <t>LMC</t>
+  </si>
+  <si>
+    <t>DIMOB</t>
+  </si>
+  <si>
+    <t>DMED</t>
+  </si>
+  <si>
+    <t>DEFIS</t>
+  </si>
+  <si>
+    <t>DESTDA</t>
+  </si>
+  <si>
+    <t>SINTEGRA</t>
+  </si>
+  <si>
+    <t>VAF DAMEF</t>
+  </si>
+  <si>
+    <t>DIRBI</t>
+  </si>
+  <si>
+    <t>DECLARAÇÃO MUNICIPAL</t>
+  </si>
+  <si>
+    <t>TREINAMENTO</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>DRE - DEPRECIACAO</t>
+  </si>
+  <si>
+    <t>DRE - FOLHA</t>
+  </si>
+  <si>
+    <t>DRE - COMPRAS</t>
+  </si>
+  <si>
+    <t>DRE - FATURAMENTO</t>
+  </si>
+  <si>
+    <t>DRE - REGISTRO ICMS/DIFAL/SIMPLES</t>
+  </si>
+  <si>
+    <t>DRE - SERVICO PRESTADO / ISS</t>
+  </si>
+  <si>
+    <t>DRE - ESTOQUE/CUSTO</t>
+  </si>
+  <si>
+    <t>DRE - FINANCEIRO</t>
+  </si>
+  <si>
+    <t>DRE - OUTRAS DESPESAS</t>
+  </si>
+  <si>
+    <t>DRE - OUTRAS RECEITAS</t>
+  </si>
+  <si>
+    <t>DRE - CONFRONTO FINANCEIRO</t>
+  </si>
+  <si>
+    <t>DRE - LIBERACAO PIS/COFINS</t>
+  </si>
+  <si>
+    <t>DRE - REGISTRO PDD</t>
+  </si>
+  <si>
+    <t>DRE - REGISTRO PIS/COFINS</t>
+  </si>
+  <si>
+    <t>DRE - REGISTRO IRPJ/CSLL</t>
+  </si>
+  <si>
+    <t>DRE - ANALISE H.V</t>
+  </si>
+  <si>
+    <t>DRE - GERACAO BALANCETE</t>
+  </si>
+  <si>
+    <t>BP - DISPONIBILIDADES / QUERY LP</t>
+  </si>
+  <si>
+    <t>BP - ENDIVIDAMENTO</t>
+  </si>
+  <si>
+    <t>BP - CONTAS A RECEBER</t>
+  </si>
+  <si>
+    <t>BP - CONTAS A PAGAR</t>
+  </si>
+  <si>
+    <t>BP - PARTES RELACIONADAS</t>
+  </si>
+  <si>
+    <t>BP - IMPOSTOS PASSIVO</t>
+  </si>
+  <si>
+    <t>BP - IMOBILIZADO</t>
+  </si>
+  <si>
+    <t>BP - FOLHA</t>
+  </si>
+  <si>
+    <t>BP - DEMAIS CONTAS</t>
+  </si>
+  <si>
+    <t>BP - ANALISE H.V.</t>
+  </si>
+  <si>
+    <t>BP - GERACAO BALANCETE</t>
+  </si>
+  <si>
+    <t>OA - IBGE/AEF</t>
+  </si>
+  <si>
+    <t>OA - SPED ECD</t>
+  </si>
+  <si>
+    <t>OA - SPED ECF</t>
+  </si>
+  <si>
+    <t>CL - SUPORTE CLIENTE</t>
+  </si>
+  <si>
+    <t>CL - CONTROLE DOCUMENTOS SUPORTE</t>
+  </si>
+  <si>
+    <t>CL - ATENDIMENTO AUDITORIA</t>
+  </si>
+  <si>
+    <t>CL - DEMOSTRACOES FINANCEIRAS</t>
+  </si>
+  <si>
+    <t>CL - FOLLOW UP CLIENTE [ID]</t>
+  </si>
+  <si>
+    <t>IN - SUPORTE EQUIPE</t>
+  </si>
+  <si>
+    <t>IN - TREINAMENTO / POP</t>
+  </si>
+  <si>
+    <t>IN - REVISAO PAPEL DE TRABALHO</t>
+  </si>
+  <si>
+    <t>IN - PARAMETRIZACAO ERP</t>
+  </si>
+  <si>
+    <t>IN - FOLLOW UP BOOKER</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>10.11</t>
+  </si>
+  <si>
+    <t>10.12</t>
+  </si>
+  <si>
+    <t>10.13</t>
+  </si>
+  <si>
+    <t>10.14</t>
+  </si>
+  <si>
+    <t>10.15</t>
+  </si>
+  <si>
+    <t>10.16</t>
+  </si>
+  <si>
+    <t>10.17</t>
+  </si>
+  <si>
+    <t>10.18</t>
+  </si>
+  <si>
+    <t>10.19</t>
+  </si>
+  <si>
+    <t>ENTREVISTA</t>
+  </si>
+  <si>
+    <t>PLANEJAMENTO DO PROJETO</t>
+  </si>
+  <si>
+    <t>DESIGNER GRAFICO</t>
+  </si>
+  <si>
+    <t>EXTRACAO DE DADOS</t>
+  </si>
+  <si>
+    <t>CRIACAO DO RELATORIO POWER BI</t>
+  </si>
+  <si>
+    <t>ATUALIZACAO DE RELATORIOS DIARIA</t>
+  </si>
+  <si>
+    <t>CORRECAO DE RELATIO</t>
+  </si>
+  <si>
+    <t>MONITORAMENTO</t>
+  </si>
+  <si>
+    <t>Q.A.</t>
+  </si>
+  <si>
+    <t>SOLICITACAO DE ACESSO</t>
+  </si>
+  <si>
+    <t>LICENCIAMENTO DE ACESSOS</t>
+  </si>
+  <si>
+    <t>OTIMIZACAO DE PROCESSOS</t>
+  </si>
+  <si>
+    <t>MELHORIA DE PROCESSOS</t>
+  </si>
+  <si>
+    <t>TREINAMENTOS E APRESENTACOES</t>
+  </si>
+  <si>
+    <t>CRIACOES DE FORMULARIO</t>
+  </si>
+  <si>
+    <t>MANUTENCAO DE BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>SUPORTE CLIENTE</t>
+  </si>
+  <si>
+    <t>CURSOS E TREINAMENTOS</t>
+  </si>
+  <si>
+    <t>PESQUISA &amp; DESENVOLVIMENTO</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO PESSOAL</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>FISCAL</t>
+  </si>
+  <si>
+    <t>CONTABIL</t>
   </si>
 </sst>
 </file>
@@ -506,11 +1241,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003B1773-11E4-47F8-B708-DFB189E28094}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -518,140 +1251,1511 @@
     <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77" t="s">
+        <v>268</v>
+      </c>
+      <c r="C77" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>170</v>
+      </c>
+      <c r="B97" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>173</v>
+      </c>
+      <c r="B100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" t="s">
+        <v>217</v>
+      </c>
+      <c r="C103" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>181</v>
+      </c>
+      <c r="B108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>185</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>186</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>187</v>
+      </c>
+      <c r="B114" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>188</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>189</v>
+      </c>
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>190</v>
+      </c>
+      <c r="B117" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" t="s">
+        <v>252</v>
+      </c>
+      <c r="C119" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>236</v>
+      </c>
+      <c r="B122" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>239</v>
+      </c>
+      <c r="B125" t="s">
+        <v>258</v>
+      </c>
+      <c r="C125" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>240</v>
+      </c>
+      <c r="B126" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>241</v>
+      </c>
+      <c r="B127" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>242</v>
+      </c>
+      <c r="B128" t="s">
+        <v>261</v>
+      </c>
+      <c r="C128" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>244</v>
+      </c>
+      <c r="B130" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>246</v>
+      </c>
+      <c r="B132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>247</v>
+      </c>
+      <c r="B133" t="s">
+        <v>266</v>
+      </c>
+      <c r="C133" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>248</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>249</v>
+      </c>
+      <c r="B135" t="s">
+        <v>268</v>
+      </c>
+      <c r="C135" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" t="s">
+        <v>269</v>
+      </c>
+      <c r="C136" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" t="s">
+        <v>270</v>
+      </c>
+      <c r="C137" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -660,6 +2764,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="312247fe-d295-4069-a5c8-f0300302237f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="96a67299-4560-4510-9370-63b35f134a04">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B0DC5D8F98F30F48A1067D5314F71C8B" ma:contentTypeVersion="10" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="a6c8bf3bda617f979e2cb9cddfcd75a0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96a67299-4560-4510-9370-63b35f134a04" xmlns:ns3="312247fe-d295-4069-a5c8-f0300302237f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d288853c0c2e4a3e837d50f0b69d60e6" ns2:_="" ns3:_="">
     <xsd:import namespace="96a67299-4560-4510-9370-63b35f134a04"/>
@@ -848,7 +2963,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -857,25 +2972,40 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="312247fe-d295-4069-a5c8-f0300302237f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="96a67299-4560-4510-9370-63b35f134a04">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{977957AB-2DB2-4076-BD5C-6463556B0D31}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFC45F3F-CCBC-4B52-92EA-B76702CCDA33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="312247fe-d295-4069-a5c8-f0300302237f"/>
+    <ds:schemaRef ds:uri="96a67299-4560-4510-9370-63b35f134a04"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACFC5E2B-1737-441E-895C-8D3B4BE248A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{977957AB-2DB2-4076-BD5C-6463556B0D31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="96a67299-4560-4510-9370-63b35f134a04"/>
+    <ds:schemaRef ds:uri="312247fe-d295-4069-a5c8-f0300302237f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFC45F3F-CCBC-4B52-92EA-B76702CCDA33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACFC5E2B-1737-441E-895C-8D3B4BE248A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>